--- a/data/trans_orig/P25D_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>19562</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11713</v>
+        <v>11864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33394</v>
+        <v>33759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03558738314078374</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0213087121593435</v>
+        <v>0.02158257345832305</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06075192914326962</v>
+        <v>0.06141485664821667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>9129</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5031</v>
+        <v>4795</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17287</v>
+        <v>15634</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01872538026361344</v>
+        <v>0.01872538026361343</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01031924358147321</v>
+        <v>0.009836532691474654</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03545952801299937</v>
+        <v>0.03206901063978993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -783,19 +783,19 @@
         <v>28691</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18841</v>
+        <v>19056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41558</v>
+        <v>42086</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02766173277120381</v>
+        <v>0.02766173277120382</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01816514954370716</v>
+        <v>0.01837307514261212</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04006784196304451</v>
+        <v>0.04057654937606509</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>12389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6869</v>
+        <v>6982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21551</v>
+        <v>20537</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02253822644078329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01249673106714756</v>
+        <v>0.01270170522551021</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03920674926469481</v>
+        <v>0.03736232424155375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>2637</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>847</v>
+        <v>705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7041</v>
+        <v>6984</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.005409727859767355</v>
+        <v>0.005409727859767353</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001736583413862107</v>
+        <v>0.001445634664424267</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01444346091876089</v>
+        <v>0.01432476366473478</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -854,19 +854,19 @@
         <v>15026</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8587</v>
+        <v>9192</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23453</v>
+        <v>24202</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01448731504562643</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008279361867996321</v>
+        <v>0.008862679932637828</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02261224056951435</v>
+        <v>0.02333370279693674</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>9169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3143</v>
+        <v>3340</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20462</v>
+        <v>21828</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01668118150529928</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005717384276101881</v>
+        <v>0.00607617097511204</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03722541125357398</v>
+        <v>0.03970965485933726</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -904,19 +904,19 @@
         <v>3271</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1279</v>
+        <v>1033</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7362</v>
+        <v>7462</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.006710021389229559</v>
+        <v>0.006710021389229557</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002622992391501793</v>
+        <v>0.002119516485923434</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01510032960115539</v>
+        <v>0.0153063583875758</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -925,19 +925,19 @@
         <v>12441</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6174</v>
+        <v>6178</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24699</v>
+        <v>24862</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01199443524895357</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005952463274763529</v>
+        <v>0.005956534092898229</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02381331096899453</v>
+        <v>0.02397014067420533</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>6931</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2315</v>
+        <v>2291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17348</v>
+        <v>19077</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01260898791095586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004210941637827076</v>
+        <v>0.004166988279150395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03155920975831728</v>
+        <v>0.03470556210933701</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4403</v>
+        <v>5078</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.002964835047767766</v>
+        <v>0.002964835047767765</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009031280444555232</v>
+        <v>0.01041638514326353</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -996,19 +996,19 @@
         <v>8376</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3037</v>
+        <v>3702</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19047</v>
+        <v>20135</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.008075944934910588</v>
+        <v>0.00807594493491059</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00292844817744893</v>
+        <v>0.003569096226771038</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01836377948109761</v>
+        <v>0.01941269071585809</v>
       </c>
     </row>
     <row r="8">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4955</v>
+        <v>5029</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001671006892228505</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.009014014736134236</v>
+        <v>0.009149046245699687</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1049,16 +1049,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10533</v>
+        <v>13787</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.007019532382912108</v>
+        <v>0.007019532382912107</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0216057075371932</v>
+        <v>0.02828030147209027</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1067,19 +1067,19 @@
         <v>4341</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13363</v>
+        <v>12909</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00418497533006677</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0008792816887733418</v>
+        <v>0.0008968158515671973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01288391920708001</v>
+        <v>0.01244593367816477</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>500713</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>483034</v>
+        <v>483533</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>515026</v>
+        <v>514464</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9109132141099492</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8787509621273503</v>
+        <v>0.8796590749885876</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.936953385836063</v>
+        <v>0.9359296039724153</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>660</v>
@@ -1117,19 +1117,19 @@
         <v>467608</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>457831</v>
+        <v>457411</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>474369</v>
+        <v>474899</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.95917050305671</v>
+        <v>0.9591705030567097</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9391162860117878</v>
+        <v>0.9382549005725168</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9730395799845791</v>
+        <v>0.9741266302492242</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1169</v>
@@ -1138,19 +1138,19 @@
         <v>968321</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>947453</v>
+        <v>947571</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>984121</v>
+        <v>984573</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9335955966692387</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9134766635546356</v>
+        <v>0.9135896580507891</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9488288596339208</v>
+        <v>0.9492654628015231</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>7067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3550</v>
+        <v>3433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13420</v>
+        <v>13193</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01469238698088242</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007381279170911903</v>
+        <v>0.007136135177857912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02789979280798829</v>
+        <v>0.02742840330980541</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1263,19 +1263,19 @@
         <v>18586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11917</v>
+        <v>12243</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27366</v>
+        <v>28698</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04399830328669888</v>
+        <v>0.04399830328669887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02821036608660978</v>
+        <v>0.02898100410682634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06478140442890201</v>
+        <v>0.06793473459672607</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -1284,19 +1284,19 @@
         <v>25654</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18551</v>
+        <v>18260</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37439</v>
+        <v>36300</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02839526271905879</v>
+        <v>0.02839526271905877</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02053373169137742</v>
+        <v>0.02021118439280286</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04144061470811648</v>
+        <v>0.04017985033723427</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>15023</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8096</v>
+        <v>8012</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27774</v>
+        <v>26702</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03123128802322194</v>
+        <v>0.03123128802322195</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0168310970100002</v>
+        <v>0.01665658606646781</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05774095961486654</v>
+        <v>0.05551143613847131</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1334,19 +1334,19 @@
         <v>2772</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6455</v>
+        <v>6886</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006562385797792959</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001695631772390722</v>
+        <v>0.001718052961658464</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01528046060879731</v>
+        <v>0.01629994306854027</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1355,19 +1355,19 @@
         <v>17795</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10355</v>
+        <v>9600</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28424</v>
+        <v>29460</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01969658976418186</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.011461171551164</v>
+        <v>0.01062569911501906</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03146183956673028</v>
+        <v>0.03260820329603779</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>7903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2934</v>
+        <v>2749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16007</v>
+        <v>16956</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01642922620775365</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006099642258980554</v>
+        <v>0.005714528508563957</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03327845929531362</v>
+        <v>0.03525071351350188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1405,19 +1405,19 @@
         <v>4646</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1857</v>
+        <v>2029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10652</v>
+        <v>10624</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01099774824909242</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004396006036694809</v>
+        <v>0.004802866671289531</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0252152780585299</v>
+        <v>0.02514921980628968</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1426,19 +1426,19 @@
         <v>12548</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6180</v>
+        <v>6717</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21226</v>
+        <v>22265</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0138895728911499</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006839959835867183</v>
+        <v>0.007434858392005752</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0234940329586337</v>
+        <v>0.02464404219582055</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>2980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8672</v>
+        <v>8440</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.006194961758261391</v>
+        <v>0.006194961758261392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001473617628463176</v>
+        <v>0.001449360464555499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01802881116832269</v>
+        <v>0.01754721264589136</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1476,19 +1476,19 @@
         <v>3994</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1408</v>
+        <v>1534</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7859</v>
+        <v>8689</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.009454640461602331</v>
+        <v>0.009454640461602333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003331909072763191</v>
+        <v>0.003632167887890055</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01860364722556071</v>
+        <v>0.02056829911082559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1497,19 +1497,19 @@
         <v>6974</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3426</v>
+        <v>3409</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12866</v>
+        <v>13603</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.007719124038401239</v>
+        <v>0.007719124038401238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003792467818007411</v>
+        <v>0.003773044640471183</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01424103042021987</v>
+        <v>0.01505703263030475</v>
       </c>
     </row>
     <row r="15">
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14017</v>
+        <v>16107</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006032165840700677</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02914029629480714</v>
+        <v>0.03348663287067707</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3201</v>
+        <v>3604</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001496251666548125</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.007576768216328885</v>
+        <v>0.008532252558402065</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16890</v>
+        <v>17622</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003911260708820904</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0186952835486628</v>
+        <v>0.01950526442986478</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>445138</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>429848</v>
+        <v>429668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>456095</v>
+        <v>456516</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9254199711891798</v>
+        <v>0.92541997118918</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8936331452516009</v>
+        <v>0.8932586466750434</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9481979643704711</v>
+        <v>0.9490748281726927</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>546</v>
@@ -1618,19 +1618,19 @@
         <v>391804</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>381615</v>
+        <v>379843</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>400857</v>
+        <v>399968</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9274906705382653</v>
+        <v>0.9274906705382651</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9033722031385005</v>
+        <v>0.8991766947162591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9489230558366035</v>
+        <v>0.9468166473240486</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>994</v>
@@ -1639,19 +1639,19 @@
         <v>836942</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>820480</v>
+        <v>817143</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>850637</v>
+        <v>852744</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9263881898783873</v>
+        <v>0.9263881898783872</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9081672287701698</v>
+        <v>0.9044739185216623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.941547078881148</v>
+        <v>0.9438789138666237</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>18511</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11545</v>
+        <v>11455</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31285</v>
+        <v>29528</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03925149542539779</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02448009649731545</v>
+        <v>0.02428823460332592</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06633647329407426</v>
+        <v>0.0626117703121848</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -1764,19 +1764,19 @@
         <v>7664</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4165</v>
+        <v>4493</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13819</v>
+        <v>13394</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04102320376139405</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02229270378603896</v>
+        <v>0.02404947929389147</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07396769065072818</v>
+        <v>0.07169126059514917</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -1785,19 +1785,19 @@
         <v>26176</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17930</v>
+        <v>17335</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>38900</v>
+        <v>37768</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03975420795355505</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02723090572966203</v>
+        <v>0.02632704691194666</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05907871253356626</v>
+        <v>0.05735964064355881</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>6471</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2548</v>
+        <v>2177</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14871</v>
+        <v>13968</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.013720043562917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005401811280279976</v>
+        <v>0.004616779927565204</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03153275605180967</v>
+        <v>0.02961667192248979</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1835,19 +1835,19 @@
         <v>1784</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5137</v>
+        <v>4875</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.00954919135016793</v>
+        <v>0.009549191350167928</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002211551212771834</v>
+        <v>0.002182593780430606</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0274983784105633</v>
+        <v>0.02609083665988828</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1856,19 +1856,19 @@
         <v>8255</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3798</v>
+        <v>3848</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15393</v>
+        <v>15665</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01253658711139992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005768287567828862</v>
+        <v>0.005843465057300583</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02337752052658987</v>
+        <v>0.02379168928416567</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>4247</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1133</v>
+        <v>1109</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10919</v>
+        <v>10383</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.009006100028434234</v>
+        <v>0.00900610002843423</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002402946792410584</v>
+        <v>0.002351924335416497</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02315219425329258</v>
+        <v>0.02201558575089677</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1906,19 +1906,19 @@
         <v>3934</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1372</v>
+        <v>1480</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10495</v>
+        <v>10418</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02105510862822127</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007341458479720669</v>
+        <v>0.007920552341156033</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05617607999269111</v>
+        <v>0.05576320273685246</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1927,19 +1927,19 @@
         <v>8181</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3797</v>
+        <v>3993</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15367</v>
+        <v>16801</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01242494016815813</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00576612053787895</v>
+        <v>0.006064385928231387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02333811968091872</v>
+        <v>0.02551663153520968</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>4877</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1130</v>
+        <v>1277</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12047</v>
+        <v>11519</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01034140948842758</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0023952409620152</v>
+        <v>0.002707810010894732</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02554341373901743</v>
+        <v>0.024424558240295</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1990,19 +1990,19 @@
         <v>4877</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1441</v>
+        <v>1128</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13303</v>
+        <v>12082</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007407091235805307</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002188161660225825</v>
+        <v>0.001713214944880727</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02020346352072741</v>
+        <v>0.01834952119852114</v>
       </c>
     </row>
     <row r="22">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5982</v>
+        <v>7583</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002419055934118453</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01268368832575819</v>
+        <v>0.01607959898252213</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2043,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4384</v>
+        <v>5229</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.006940852268532657</v>
+        <v>0.006940852268532655</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02346723842933219</v>
+        <v>0.02798886425820431</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2061,19 +2061,19 @@
         <v>2438</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6965</v>
+        <v>7528</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003702090856346404</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0008409398472185317</v>
+        <v>0.0008531079598060697</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01057862128214017</v>
+        <v>0.01143361530777745</v>
       </c>
     </row>
     <row r="23">
@@ -2090,19 +2090,19 @@
         <v>436365</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>424285</v>
+        <v>422827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>447059</v>
+        <v>446940</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9252618955607049</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8996493939370841</v>
+        <v>0.8965576721685262</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9479385407995052</v>
+        <v>0.9476860955328703</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>265</v>
@@ -2111,19 +2111,19 @@
         <v>172150</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>164028</v>
+        <v>164181</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>177576</v>
+        <v>177125</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9214316439916841</v>
+        <v>0.921431643991684</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8779562514898237</v>
+        <v>0.8787793534871019</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9504752392808972</v>
+        <v>0.9480575966803697</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>720</v>
@@ -2132,19 +2132,19 @@
         <v>608514</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>592893</v>
+        <v>592548</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>620562</v>
+        <v>620254</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9241750826747354</v>
+        <v>0.9241750826747352</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9004509853396206</v>
+        <v>0.8999277381991792</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.942473296183567</v>
+        <v>0.9420049083486686</v>
       </c>
     </row>
     <row r="24">
@@ -2236,19 +2236,19 @@
         <v>37349</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24416</v>
+        <v>24744</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55212</v>
+        <v>58284</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03309177407382317</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02163346484326119</v>
+        <v>0.02192349654347229</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04891914233331281</v>
+        <v>0.05164156085538412</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -2257,19 +2257,19 @@
         <v>31714</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23306</v>
+        <v>22652</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43767</v>
+        <v>42233</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03694667400218823</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02715190384125106</v>
+        <v>0.02638976290982634</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05098825450716557</v>
+        <v>0.04920125573012803</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>81</v>
@@ -2278,19 +2278,19 @@
         <v>69063</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54387</v>
+        <v>53303</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93002</v>
+        <v>90078</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03475706245472597</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02737141715764363</v>
+        <v>0.02682582240056823</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.046805144002733</v>
+        <v>0.0453332849508204</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>17232</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9097</v>
+        <v>9500</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29886</v>
+        <v>32408</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01526769673921369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008060461556924343</v>
+        <v>0.008417273345991691</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02647972776311879</v>
+        <v>0.02871474142528109</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2328,19 +2328,19 @@
         <v>9944</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5904</v>
+        <v>5698</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16997</v>
+        <v>15971</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01158498569547067</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006878377350592778</v>
+        <v>0.00663768934396269</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01980192625686543</v>
+        <v>0.01860573553793577</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -2349,19 +2349,19 @@
         <v>27176</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17130</v>
+        <v>17873</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42334</v>
+        <v>43286</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01367679268843883</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008620826393940127</v>
+        <v>0.00899515686045683</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02130524037297729</v>
+        <v>0.02178459822660522</v>
       </c>
     </row>
     <row r="27">
@@ -2378,19 +2378,19 @@
         <v>12663</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5818</v>
+        <v>6106</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>25592</v>
+        <v>28523</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01122004955388946</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.005154663192451381</v>
+        <v>0.005410135139981963</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02267524027627589</v>
+        <v>0.02527170503913899</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -2399,19 +2399,19 @@
         <v>6568</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3197</v>
+        <v>2740</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12843</v>
+        <v>13361</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.007651925602437118</v>
+        <v>0.007651925602437119</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.003724270412040019</v>
+        <v>0.003192147978470016</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01496191087174394</v>
+        <v>0.01556545141611307</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>17</v>
@@ -2420,19 +2420,19 @@
         <v>19232</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10799</v>
+        <v>10663</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>32157</v>
+        <v>32255</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.009678646283144981</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.005434673324267387</v>
+        <v>0.005366412401145289</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01618356953321585</v>
+        <v>0.01623272707252171</v>
       </c>
     </row>
     <row r="28">
@@ -2449,19 +2449,19 @@
         <v>19937</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10073</v>
+        <v>11347</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35788</v>
+        <v>37687</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01766478476512586</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008925054247634557</v>
+        <v>0.01005380467709226</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03170901363593832</v>
+        <v>0.03339126650112872</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2470,19 +2470,19 @@
         <v>12713</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5659</v>
+        <v>6043</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25006</v>
+        <v>25211</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01481073685878994</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006592598616479917</v>
+        <v>0.007040547716944525</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02913187143071009</v>
+        <v>0.02937063594138802</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>21</v>
@@ -2491,19 +2491,19 @@
         <v>32650</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19803</v>
+        <v>20615</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>52149</v>
+        <v>51593</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.01643185708729196</v>
+        <v>0.01643185708729197</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009966036798257276</v>
+        <v>0.01037503511501669</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02624524015090214</v>
+        <v>0.02596525137000422</v>
       </c>
     </row>
     <row r="29">
@@ -2520,19 +2520,19 @@
         <v>13467</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4848</v>
+        <v>4746</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30016</v>
+        <v>30115</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01193180656329572</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00429563737426604</v>
+        <v>0.004205260078397517</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02659465159195619</v>
+        <v>0.02668298617635079</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2541,19 +2541,19 @@
         <v>6416</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2060</v>
+        <v>2023</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16187</v>
+        <v>16560</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007474156688866956</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002399671054095916</v>
+        <v>0.002356509822986134</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01885792743936536</v>
+        <v>0.01929281297533405</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -2562,19 +2562,19 @@
         <v>19882</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10532</v>
+        <v>8774</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>37378</v>
+        <v>34231</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01000613464444843</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005300594122400392</v>
+        <v>0.004415884859068027</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01881110671659634</v>
+        <v>0.01722749711752431</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>1027988</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1000982</v>
+        <v>999386</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1051115</v>
+        <v>1050935</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9108238883046521</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8868961361135766</v>
+        <v>0.8854822573108142</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9313151031060302</v>
+        <v>0.9311556584568281</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1138</v>
@@ -2612,19 +2612,19 @@
         <v>791018</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>772935</v>
+        <v>772851</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>804454</v>
+        <v>804104</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.921531521152247</v>
+        <v>0.9215315211522472</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9004652956619076</v>
+        <v>0.9003673886298149</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9371849562415646</v>
+        <v>0.9367769575566277</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2183</v>
@@ -2633,19 +2633,19 @@
         <v>1819005</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1789573</v>
+        <v>1790327</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1850829</v>
+        <v>1850752</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9154495068419498</v>
+        <v>0.9154495068419497</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9006376151059586</v>
+        <v>0.901016761106031</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9314658436935835</v>
+        <v>0.931427044180048</v>
       </c>
     </row>
     <row r="31">
@@ -2737,19 +2737,19 @@
         <v>22950</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14314</v>
+        <v>14726</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>36274</v>
+        <v>35926</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04056253273239743</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02529861319758741</v>
+        <v>0.0260269571377333</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06411354689055518</v>
+        <v>0.06349763017817538</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>40</v>
@@ -2758,19 +2758,19 @@
         <v>24017</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16952</v>
+        <v>16905</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>33833</v>
+        <v>34500</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02895418358538971</v>
+        <v>0.0289541835853897</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02043756971754092</v>
+        <v>0.02038077297178342</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04078797647080667</v>
+        <v>0.04159243429847032</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>61</v>
@@ -2779,19 +2779,19 @@
         <v>46966</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>34816</v>
+        <v>34763</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>61372</v>
+        <v>62133</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.03366142963766495</v>
+        <v>0.03366142963766494</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02495281439329051</v>
+        <v>0.02491521644784556</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04398601196660151</v>
+        <v>0.04453164892856679</v>
       </c>
     </row>
     <row r="33">
@@ -2808,19 +2808,19 @@
         <v>9195</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>4484</v>
+        <v>3729</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>18206</v>
+        <v>16648</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01625203479934133</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.007925592660423095</v>
+        <v>0.006590950768505307</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03217855808355156</v>
+        <v>0.02942508196952752</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>16</v>
@@ -2829,19 +2829,19 @@
         <v>12770</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>7591</v>
+        <v>7029</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>20432</v>
+        <v>20281</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01539508302208317</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.009152011677614721</v>
+        <v>0.008473976395225341</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02463295302319655</v>
+        <v>0.02445094451516993</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>24</v>
@@ -2850,19 +2850,19 @@
         <v>21965</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>14268</v>
+        <v>14530</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>33297</v>
+        <v>33862</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01574258143201242</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01022623660058099</v>
+        <v>0.01041374585040809</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02386432323959891</v>
+        <v>0.02426931200848571</v>
       </c>
     </row>
     <row r="34">
@@ -2879,19 +2879,19 @@
         <v>3992</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>980</v>
+        <v>1066</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12679</v>
+        <v>11176</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007055615366103551</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001731270932953879</v>
+        <v>0.001883731477761363</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02240950696352004</v>
+        <v>0.01975292568678685</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2900,19 +2900,19 @@
         <v>2586</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6357</v>
+        <v>7028</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003118033006133575</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0009405101340721699</v>
+        <v>0.0009580891323993732</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.007663974252711995</v>
+        <v>0.008472648017303051</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -2921,19 +2921,19 @@
         <v>6578</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2839</v>
+        <v>2639</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14786</v>
+        <v>14436</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.004714743165756495</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002035027248739314</v>
+        <v>0.001891448335139105</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01059710057822141</v>
+        <v>0.01034634874210174</v>
       </c>
     </row>
     <row r="35">
@@ -2950,19 +2950,19 @@
         <v>5239</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19576</v>
+        <v>17267</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.009259847144503543</v>
+        <v>0.009259847144503541</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.001477253113312355</v>
+        <v>0.001499023616515851</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03460021266907303</v>
+        <v>0.03051850402845032</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11250</v>
+        <v>10234</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.003508547333599802</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0135634048321889</v>
+        <v>0.01233832910578942</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -2992,19 +2992,19 @@
         <v>8149</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2571</v>
+        <v>2901</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21768</v>
+        <v>22673</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.005840729368054417</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001842354830617506</v>
+        <v>0.002079057012650235</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01560126151849507</v>
+        <v>0.01625000447968401</v>
       </c>
     </row>
     <row r="36">
@@ -3021,19 +3021,19 @@
         <v>6380</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1978</v>
+        <v>1703</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20194</v>
+        <v>20204</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0112769119774599</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003496678596747003</v>
+        <v>0.003009176719106895</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03569258033867734</v>
+        <v>0.03570958546262627</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3259</v>
+        <v>3448</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001200295006468296</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.003929409217896398</v>
+        <v>0.004156624585461258</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -3063,19 +3063,19 @@
         <v>7376</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2387</v>
+        <v>2574</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>21169</v>
+        <v>18839</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005286415681880332</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00171067680834438</v>
+        <v>0.001844669205152342</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01517234833364617</v>
+        <v>0.01350246769508785</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>518028</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>500119</v>
+        <v>501656</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>532289</v>
+        <v>532095</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9155930579801944</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8839405199596125</v>
+        <v>0.8866564796378386</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.940798990945568</v>
+        <v>0.9404553154953709</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1224</v>
@@ -3113,19 +3113,19 @@
         <v>786194</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>774009</v>
+        <v>774328</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>796731</v>
+        <v>797232</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.9478238580463253</v>
+        <v>0.9478238580463255</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9331330289839135</v>
+        <v>0.9335183095768427</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.960526543879395</v>
+        <v>0.9611311370907564</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1730</v>
@@ -3134,19 +3134,19 @@
         <v>1304222</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1282602</v>
+        <v>1283765</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1321843</v>
+        <v>1322337</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9347541007146313</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9192582493656061</v>
+        <v>0.9200921834249921</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9473830423237223</v>
+        <v>0.9477371572627394</v>
       </c>
     </row>
     <row r="38">
@@ -3238,19 +3238,19 @@
         <v>9993</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>3087</v>
+        <v>2684</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>25354</v>
+        <v>24416</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04232166843451977</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01307377306903351</v>
+        <v>0.01136852874282536</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1073734529803991</v>
+        <v>0.1033995849959068</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>38</v>
@@ -3259,19 +3259,19 @@
         <v>27181</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>16567</v>
+        <v>17916</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>42589</v>
+        <v>43331</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03222094431445759</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01963886232203446</v>
+        <v>0.02123780955942186</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.05048534108342664</v>
+        <v>0.05136503832929665</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>43</v>
@@ -3280,19 +3280,19 @@
         <v>37175</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>24166</v>
+        <v>25643</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>54698</v>
+        <v>55907</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03442992673968363</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02238144299050171</v>
+        <v>0.0237492420082238</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05065968586504322</v>
+        <v>0.05177945870111564</v>
       </c>
     </row>
     <row r="40">
@@ -3322,19 +3322,19 @@
         <v>5048</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1893</v>
+        <v>2071</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9492</v>
+        <v>11152</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.005983378111274087</v>
+        <v>0.005983378111274086</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002243610568948566</v>
+        <v>0.002454481199906124</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01125151814998934</v>
+        <v>0.01321910471454334</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7</v>
@@ -3343,19 +3343,19 @@
         <v>5048</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2133</v>
+        <v>2087</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10290</v>
+        <v>10006</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.004674840531771788</v>
+        <v>0.004674840531771787</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001975662045048159</v>
+        <v>0.001932549185375897</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.009530566652783484</v>
+        <v>0.009267330950069022</v>
       </c>
     </row>
     <row r="41">
@@ -3375,16 +3375,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8368</v>
+        <v>9443</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.007810608397382377</v>
+        <v>0.00781060839738238</v>
       </c>
       <c r="H41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03543959547313742</v>
+        <v>0.03999049948246257</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -3393,19 +3393,19 @@
         <v>4938</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16469</v>
+        <v>16669</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00585384686030783</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.000954514380515639</v>
+        <v>0.0009391992202804591</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01952203443452902</v>
+        <v>0.01975989935386172</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4</v>
@@ -3414,19 +3414,19 @@
         <v>6783</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1849</v>
+        <v>1864</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>16347</v>
+        <v>16917</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00628178170877782</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001712889695945687</v>
+        <v>0.0017264858097171</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01514007846111277</v>
+        <v>0.01566752478371185</v>
       </c>
     </row>
     <row r="42">
@@ -3446,16 +3446,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>18221</v>
+        <v>17363</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.01497376007494177</v>
+        <v>0.01497376007494178</v>
       </c>
       <c r="H42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07716680325222312</v>
+        <v>0.07353126983813267</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>5</v>
@@ -3464,19 +3464,19 @@
         <v>5222</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1460</v>
+        <v>1491</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>15969</v>
+        <v>15864</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.006190027223664599</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.001731287676990258</v>
+        <v>0.001768022822878342</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01892927573703806</v>
+        <v>0.01880584308572492</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6</v>
@@ -3485,19 +3485,19 @@
         <v>8758</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2814</v>
+        <v>3041</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>22306</v>
+        <v>23435</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.008110989648310299</v>
+        <v>0.008110989648310297</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.002606007935368709</v>
+        <v>0.002816859042842419</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02065889636514686</v>
+        <v>0.02170431037222072</v>
       </c>
     </row>
     <row r="43">
@@ -3527,19 +3527,19 @@
         <v>6961</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2169</v>
+        <v>2624</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>17688</v>
+        <v>18158</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.008251412891905945</v>
+        <v>0.008251412891905943</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.002570927067247282</v>
+        <v>0.003110235191791763</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02096734147349191</v>
+        <v>0.02152451364907178</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>5</v>
@@ -3548,19 +3548,19 @@
         <v>6961</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2193</v>
+        <v>2347</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>17036</v>
+        <v>17690</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.006446866421291951</v>
+        <v>0.00644686642129195</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.002030738215213558</v>
+        <v>0.002173847649313807</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01577810265847997</v>
+        <v>0.01638342657032363</v>
       </c>
     </row>
     <row r="44">
@@ -3577,19 +3577,19 @@
         <v>220757</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>205169</v>
+        <v>205229</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>230346</v>
+        <v>230761</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.9348939630931562</v>
+        <v>0.934893963093156</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8688810586285779</v>
+        <v>0.8691351674247151</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.975506374194784</v>
+        <v>0.9772633595103931</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1100</v>
@@ -3598,19 +3598,19 @@
         <v>794240</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>774761</v>
+        <v>773184</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>807988</v>
+        <v>807654</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.9415003905983901</v>
+        <v>0.94150039059839</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9184092025593693</v>
+        <v>0.916540557112243</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9577966964517455</v>
+        <v>0.9574010228886959</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1204</v>
@@ -3619,19 +3619,19 @@
         <v>1014997</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>994677</v>
+        <v>992202</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1033401</v>
+        <v>1032905</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9400555949501646</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9212356193029361</v>
+        <v>0.91894392661026</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9571011090349917</v>
+        <v>0.9566411043058669</v>
       </c>
     </row>
     <row r="45">
@@ -3723,19 +3723,19 @@
         <v>115432</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>92985</v>
+        <v>90853</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>145112</v>
+        <v>145874</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03362565827153581</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02708691268735034</v>
+        <v>0.02646576435122678</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04227157587442167</v>
+        <v>0.04249344831081799</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>180</v>
@@ -3744,19 +3744,19 @@
         <v>118292</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>100409</v>
+        <v>100570</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>140299</v>
+        <v>142253</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.03260326850497709</v>
+        <v>0.0326032685049771</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02767458680482573</v>
+        <v>0.02771893436537052</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03866883360558634</v>
+        <v>0.03920735238750263</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>282</v>
@@ -3765,19 +3765,19 @@
         <v>233724</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>204354</v>
+        <v>202216</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>272209</v>
+        <v>269776</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0331003202872075</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02894090323145058</v>
+        <v>0.02863818773035063</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03855075549721434</v>
+        <v>0.03820609637795962</v>
       </c>
     </row>
     <row r="47">
@@ -3794,19 +3794,19 @@
         <v>60309</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>45468</v>
+        <v>44699</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>79455</v>
+        <v>80166</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01756812491380089</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01324486093105739</v>
+        <v>0.0130208629186171</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02314539407748141</v>
+        <v>0.02335254407880482</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>49</v>
@@ -3815,19 +3815,19 @@
         <v>34955</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>25851</v>
+        <v>26588</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>46173</v>
+        <v>48255</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.009634253787648629</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.00712494413491618</v>
+        <v>0.007327997300057843</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0127261276905657</v>
+        <v>0.01329991105767927</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>101</v>
@@ -3836,19 +3836,19 @@
         <v>95264</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>79321</v>
+        <v>77833</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>117655</v>
+        <v>118737</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01349143713614208</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01123353986323615</v>
+        <v>0.01102284784149469</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01666251316285876</v>
+        <v>0.01681575871943823</v>
       </c>
     </row>
     <row r="48">
@@ -3865,19 +3865,19 @@
         <v>39819</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>27275</v>
+        <v>26481</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>57903</v>
+        <v>59196</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01159938376973698</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.007945300095722337</v>
+        <v>0.007714049106676172</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.01686720079423485</v>
+        <v>0.0172439049490173</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>31</v>
@@ -3886,19 +3886,19 @@
         <v>25944</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>17156</v>
+        <v>17368</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>37308</v>
+        <v>37872</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.007150498448154285</v>
+        <v>0.007150498448154287</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.004728395327890993</v>
+        <v>0.004786904321819257</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.01028275804049682</v>
+        <v>0.01043821435522443</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>60</v>
@@ -3907,19 +3907,19 @@
         <v>65763</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>48294</v>
+        <v>49846</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>86835</v>
+        <v>88185</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.009313398009908061</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.006839547133338337</v>
+        <v>0.007059238923536339</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01229769780082407</v>
+        <v>0.01248891072528265</v>
       </c>
     </row>
     <row r="49">
@@ -3936,19 +3936,19 @@
         <v>43500</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>28966</v>
+        <v>28634</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>67247</v>
+        <v>62813</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.01267162102088584</v>
+        <v>0.01267162102088583</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.008437853528023346</v>
+        <v>0.008341167360065195</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01958932571713214</v>
+        <v>0.01829760669040889</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>24</v>
@@ -3957,19 +3957,19 @@
         <v>26285</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>16922</v>
+        <v>17281</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>40231</v>
+        <v>41168</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.007244499712407023</v>
+        <v>0.007244499712407024</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.004664077778594791</v>
+        <v>0.004762955634595759</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01108838402033231</v>
+        <v>0.01134651256946389</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>52</v>
@@ -3978,19 +3978,19 @@
         <v>69784</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>52174</v>
+        <v>49914</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>96841</v>
+        <v>93787</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.009882984962352169</v>
+        <v>0.009882984962352171</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.007388985878968646</v>
+        <v>0.007068903779011368</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01371481490955038</v>
+        <v>0.01328230739039467</v>
       </c>
     </row>
     <row r="50">
@@ -4007,19 +4007,19 @@
         <v>24808</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>12386</v>
+        <v>12723</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>44438</v>
+        <v>41921</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.007226601256407002</v>
+        <v>0.007226601256407</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.003607954224650763</v>
+        <v>0.003706332726113676</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01294481177710443</v>
+        <v>0.01221170399152839</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>17</v>
@@ -4028,19 +4028,19 @@
         <v>19723</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>11582</v>
+        <v>11110</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>32855</v>
+        <v>33686</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.005436002582401262</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.003192267723605484</v>
+        <v>0.00306207743616433</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.009055391294355253</v>
+        <v>0.009284353366060859</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>30</v>
@@ -4049,19 +4049,19 @@
         <v>44531</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>28713</v>
+        <v>29686</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>65570</v>
+        <v>67917</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.006306531896451131</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.004066451862669534</v>
+        <v>0.004204220659662031</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.009286075147060428</v>
+        <v>0.009618504360320418</v>
       </c>
     </row>
     <row r="51">
@@ -4078,19 +4078,19 @@
         <v>3148987</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>3105853</v>
+        <v>3102987</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>3186572</v>
+        <v>3186639</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.9173086107676337</v>
+        <v>0.9173086107676336</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.904743564409164</v>
+        <v>0.9039089260379394</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9282574589818605</v>
+        <v>0.9282767445727388</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>4933</v>
@@ -4099,19 +4099,19 @@
         <v>3403013</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>3371655</v>
+        <v>3372826</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>3428533</v>
+        <v>3428947</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.9379314769644117</v>
+        <v>0.9379314769644118</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.9292885991285911</v>
+        <v>0.9296113685162921</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.9449652202800135</v>
+        <v>0.9450792170694888</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>8000</v>
@@ -4120,19 +4120,19 @@
         <v>6552001</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>6496750</v>
+        <v>6499231</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>6598369</v>
+        <v>6599734</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.927905327707939</v>
+        <v>0.9279053277079391</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.9200805941234037</v>
+        <v>0.9204320545476827</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.9344720997717675</v>
+        <v>0.9346654099675648</v>
       </c>
     </row>
     <row r="52">
